--- a/document/User stories/user requirment.xlsx
+++ b/document/User stories/user requirment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fab39d1ed880c2d/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E18E71D-667E-4876-8EA7-C3B37CC454E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4E18E71D-667E-4876-8EA7-C3B37CC454E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395410D6-69D3-4219-8DEC-02BBF3E5C430}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C8EF57-95FB-42D0-B838-B3AC09651D23}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -41,10 +33,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Customer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Requirement</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,9 +52,6 @@
     <t>I want to have a separate account</t>
   </si>
   <si>
-    <t>No need to re-enter information every time</t>
-  </si>
-  <si>
     <t>Done</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,9 +63,6 @@
     <t>I want to log in with my account or email</t>
   </si>
   <si>
-    <t>easy login</t>
-  </si>
-  <si>
     <t>Login</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,24 +70,15 @@
     <t>I want to upload my avatar on my account</t>
   </si>
   <si>
-    <t>It makes me feel like I'm different</t>
-  </si>
-  <si>
     <t>personal information</t>
   </si>
   <si>
     <t>I want to be able to modify my personal information at any time</t>
   </si>
   <si>
-    <t>Sometimes move or change phone number</t>
-  </si>
-  <si>
     <t>I want to click on the service I need to make an appointment directly</t>
   </si>
   <si>
-    <t>easy for me to operate</t>
-  </si>
-  <si>
     <t>main page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,9 +86,6 @@
     <t>I want to directly select a time slot to make an appointment</t>
   </si>
   <si>
-    <t>Save time by not typing</t>
-  </si>
-  <si>
     <t>Book</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,45 +93,27 @@
     <t>I want to find the service I need by searching</t>
   </si>
   <si>
-    <t>Let me find the service I need faster</t>
-  </si>
-  <si>
     <t>search bar</t>
   </si>
   <si>
     <t>I want to add a description when submitting an order</t>
   </si>
   <si>
-    <t>Clarify what staff need to do</t>
-  </si>
-  <si>
     <t>I want to bookmark my favorite services</t>
   </si>
   <si>
-    <t>It's easy to find when you book next time</t>
-  </si>
-  <si>
     <t>I want to check if my order is booked successfully</t>
   </si>
   <si>
-    <t>If the order is not successful, you can place a new order</t>
-  </si>
-  <si>
     <t>I want to check the status of my order, is there someone to service</t>
   </si>
   <si>
-    <t>Check if someone is coming for the service</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
     <t>I want to be able to cancel my order at any time</t>
   </si>
   <si>
-    <t>There may be some temporary changes that require cancellation of the order</t>
-  </si>
-  <si>
     <t>Order</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,16 +122,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>What services can I find that I need</t>
-  </si>
-  <si>
     <t>I want to give some feedback</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I can give feedback if I am not satisfied</t>
-  </si>
-  <si>
     <t>feedback</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,9 +133,6 @@
     <t>I want to be able to pay in the app</t>
   </si>
   <si>
-    <t>Simple payment, no need to prepare cash</t>
-  </si>
-  <si>
     <t>Payment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,57 +140,30 @@
     <t>I want to check my account balance</t>
   </si>
   <si>
-    <t>confirm how much money i have</t>
-  </si>
-  <si>
     <t>I want to be able to query the time of payment</t>
   </si>
   <si>
-    <t>I can confirm when I placed the order</t>
-  </si>
-  <si>
     <t>I want to see what services I have ordered before</t>
   </si>
   <si>
-    <t>Confirm what I ordered before</t>
-  </si>
-  <si>
     <t>I wish there was a navigation bar</t>
   </si>
   <si>
-    <t>The page I need that is easy to find</t>
-  </si>
-  <si>
     <t>I want to be able to categorize services</t>
   </si>
   <si>
-    <t>Quickly find the service you need</t>
-  </si>
-  <si>
     <t>I want to give feedback on the service so other users can review it</t>
   </si>
   <si>
-    <t>Give useful advice and ensure quality of service</t>
-  </si>
-  <si>
     <t>I would like to receive an SMS or email to confirm my order information</t>
   </si>
   <si>
-    <t>have a written booking instrument</t>
-  </si>
-  <si>
     <t>I want to advance or postpone my booking</t>
   </si>
   <si>
-    <t>Easy to change order information</t>
-  </si>
-  <si>
     <t>As an already logged in user, I want to log out of my login</t>
   </si>
   <si>
-    <t>keep my privacy</t>
-  </si>
-  <si>
     <t>Logout</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -255,28 +171,15 @@
     <t>I want to know the price of the service on the main interface</t>
   </si>
   <si>
-    <t>It is convenient for me to judge whether this service is suitable for me</t>
-  </si>
-  <si>
     <t>I want to see if I have reviewed one of my orders</t>
   </si>
   <si>
-    <t>Will not repeatedly evaluate a service</t>
-  </si>
-  <si>
     <t>I want to save my payment method</t>
   </si>
   <si>
-    <t>Convenient for next payment</t>
-  </si>
-  <si>
     <t>Information</t>
   </si>
   <si>
-    <t>Confirm whether it is the service I want</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>I want to see some information about service</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,9 +187,6 @@
     <t>I want more merchants to provide services on the platform</t>
   </si>
   <si>
-    <t>This can compare the price and service quality to choose my favorite</t>
-  </si>
-  <si>
     <t>Shop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -294,10 +194,131 @@
     <t>I hope to see what service can be displayed when the order is viewed</t>
   </si>
   <si>
-    <t>Let me know clearly what the order is I booked</t>
-  </si>
-  <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>As a Customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that no need to re-enter information every time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that easy login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that It makes me feel like I'm different</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that  Sometimes move or change phone number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that  easy for me to operate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Save time by not typing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Let me find the service I need faster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Clarify what staff need to do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that It's easy to find when you book next time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that If the order is not successful, you can place a new order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Check if someone is coming for the service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that There may be some temporary changes that require cancellation of the order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that   can I find the services that I need</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that I can give feedback if I am not satisfied</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Simple payment, no need to prepare cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that confirm how much money i have</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that I can confirm when I placed the order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Confirm what I ordered before</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that The page I need that is easy to find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Quickly find the service you need</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Give useful advice and ensure quality of service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that have a written booking instrument</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Easy to change order information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that keep my privacy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that It is convenient for me to judge whether this service is suitable for me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that will not repeatedly evaluate a service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Convenient for next payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Confirm whether it is the service I want</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that This can compare the price and service quality to choose my favorite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>so that Let me know clearly what the order is I booked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -687,7 +708,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -725,19 +746,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -745,19 +766,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,19 +786,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,19 +806,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,19 +826,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -825,19 +846,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -845,19 +866,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,19 +886,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,19 +906,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -905,19 +926,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -925,19 +946,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -945,19 +966,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,19 +986,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,19 +1006,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,19 +1026,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,19 +1046,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,19 +1066,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,19 +1086,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,19 +1106,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1105,19 +1126,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,19 +1146,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1145,19 +1166,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,19 +1186,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,19 +1206,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,19 +1226,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,19 +1246,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1245,19 +1266,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1265,19 +1286,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,19 +1306,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,19 +1326,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
